--- a/plots.xlsx
+++ b/plots.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff\Documents\Stanford\CS224\cs224n-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericyang/224n/project/cs224n-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32720" windowHeight="20320" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="L1 Pair" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,15 @@
     <sheet name="LM" sheetId="4" r:id="rId4"/>
     <sheet name="LM one-hot" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -98,14 +104,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -195,7 +201,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -206,10 +212,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.6775371828521436E-2"/>
-          <c:y val="7.407407407407407E-2"/>
-          <c:w val="0.88389129483814521"/>
-          <c:h val="0.8416746864975212"/>
+          <c:x val="0.0867753718285214"/>
+          <c:y val="0.0740740740740741"/>
+          <c:w val="0.883891294838145"/>
+          <c:h val="0.841674686497521"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -250,49 +256,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -316,37 +322,37 @@
                   <c:v>3.01201923077</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8675480769199999</c:v>
+                  <c:v>2.86754807692</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2.70192307692</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8367788461500001</c:v>
+                  <c:v>2.83677884615</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.8848557692300001</c:v>
+                  <c:v>2.88485576923</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2.82211538462</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.9798076923100001</c:v>
+                  <c:v>2.97980769231</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.8120192307699998</c:v>
+                  <c:v>2.81201923077</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.6969951923100002</c:v>
+                  <c:v>2.69699519231</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.9983173076899998</c:v>
+                  <c:v>2.99831730769</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>2.85997596154</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.8049278846200001</c:v>
+                  <c:v>2.80492788462</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -361,11 +367,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="409661088"/>
-        <c:axId val="409663808"/>
+        <c:axId val="-1610022256"/>
+        <c:axId val="-1610020208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="409661088"/>
+        <c:axId val="-1610022256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -419,15 +425,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="409663808"/>
+        <c:crossAx val="-1610020208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="409663808"/>
+        <c:axId val="-1610020208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -481,10 +487,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="409661088"/>
+        <c:crossAx val="-1610022256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -522,7 +528,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-TW"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -574,7 +580,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -585,10 +591,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.6775371828521436E-2"/>
-          <c:y val="7.407407407407407E-2"/>
-          <c:w val="0.88389129483814521"/>
-          <c:h val="0.8416746864975212"/>
+          <c:x val="0.0867753718285214"/>
+          <c:y val="0.0740740740740741"/>
+          <c:w val="0.883891294838145"/>
+          <c:h val="0.841674686497521"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -629,49 +635,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -686,46 +692,46 @@
                   <c:v>4.46514423077</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7269230769200004</c:v>
+                  <c:v>4.72692307692</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8973557692299998</c:v>
+                  <c:v>4.89735576923</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0737980769200002</c:v>
+                  <c:v>5.07379807692</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0466346153800004</c:v>
+                  <c:v>5.04663461538</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0305288461500002</c:v>
+                  <c:v>5.03052884615</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>5.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.0867788461499996</c:v>
+                  <c:v>5.08677884615</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>5.19951923077</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.1487980769200004</c:v>
+                  <c:v>5.14879807692</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.1985576923099996</c:v>
+                  <c:v>5.19855769231</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.2057692307699996</c:v>
+                  <c:v>5.20576923077</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.1569711538499998</c:v>
+                  <c:v>5.15697115385</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>5.08413461538</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.0872596153799998</c:v>
+                  <c:v>5.08725961538</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -740,11 +746,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="591449136"/>
-        <c:axId val="699831200"/>
+        <c:axId val="-1652171488"/>
+        <c:axId val="-1652169440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="591449136"/>
+        <c:axId val="-1652171488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -798,15 +804,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="699831200"/>
+        <c:crossAx val="-1652169440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="699831200"/>
+        <c:axId val="-1652169440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -860,10 +866,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="591449136"/>
+        <c:crossAx val="-1652171488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -901,7 +907,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-TW"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -978,7 +984,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1023,49 +1029,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1077,49 +1083,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.59017697737599994</c:v>
+                  <c:v>0.590176977376</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.47292025376699998</c:v>
+                  <c:v>0.472920253767</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.447641532758</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.43197109315999999</c:v>
+                  <c:v>0.43197109316</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.42035645273799999</c:v>
+                  <c:v>0.420356452738</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.41097374352900001</c:v>
+                  <c:v>0.410973743529</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.39850377672699999</c:v>
+                  <c:v>0.398503776727</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.39575285941299998</c:v>
+                  <c:v>0.395752859413</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.38373947816600001</c:v>
+                  <c:v>0.383739478166</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.382676738628</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.38676053352299999</c:v>
+                  <c:v>0.386760533523</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.37693941647700002</c:v>
+                  <c:v>0.376939416477</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.36842102127699999</c:v>
+                  <c:v>0.368421021277</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.36970717172700002</c:v>
+                  <c:v>0.369707171727</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.36420776281900002</c:v>
+                  <c:v>0.364207762819</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1161,49 +1167,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1215,49 +1221,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.55697864294099997</c:v>
+                  <c:v>0.556978642941</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.475655972958</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.45439422130599999</c:v>
+                  <c:v>0.454394221306</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.44768103957200001</c:v>
+                  <c:v>0.447681039572</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.44388997554800003</c:v>
+                  <c:v>0.443889975548</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.43407842516900003</c:v>
+                  <c:v>0.434078425169</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.42970818281200002</c:v>
+                  <c:v>0.429708182812</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.42585355043400003</c:v>
+                  <c:v>0.425853550434</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.42486354708700003</c:v>
+                  <c:v>0.424863547087</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.42019677162199998</c:v>
+                  <c:v>0.420196771622</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.41980573534999999</c:v>
+                  <c:v>0.41980573535</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.41747221350699998</c:v>
+                  <c:v>0.417472213507</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.41308909654600001</c:v>
+                  <c:v>0.413089096546</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.41377663612400001</c:v>
+                  <c:v>0.413776636124</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.41169852018399999</c:v>
+                  <c:v>0.411698520184</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1272,11 +1278,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="704070544"/>
-        <c:axId val="704071088"/>
+        <c:axId val="-1686647296"/>
+        <c:axId val="-1686645232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="704070544"/>
+        <c:axId val="-1686647296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1330,15 +1336,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="704071088"/>
+        <c:crossAx val="-1686645232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="704071088"/>
+        <c:axId val="-1686645232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1392,10 +1398,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="704070544"/>
+        <c:crossAx val="-1686647296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1435,7 +1441,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1465,7 +1471,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-TW"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1517,7 +1523,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1528,10 +1534,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.6775371828521436E-2"/>
-          <c:y val="7.407407407407407E-2"/>
-          <c:w val="0.88389129483814521"/>
-          <c:h val="0.8416746864975212"/>
+          <c:x val="0.0867753718285214"/>
+          <c:y val="0.0740740740740741"/>
+          <c:w val="0.883891294838145"/>
+          <c:h val="0.841674686497521"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1572,49 +1578,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1626,46 +1632,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>3.1539663461499998</c:v>
+                  <c:v>3.15396634615</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1289663461499999</c:v>
+                  <c:v>3.12896634615</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0784855769199999</c:v>
+                  <c:v>3.07848557692</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0514423076899999</c:v>
+                  <c:v>3.05144230769</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0397836538499998</c:v>
+                  <c:v>3.03978365385</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2.91706730769</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8289663461500001</c:v>
+                  <c:v>2.82896634615</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.7032451923099998</c:v>
+                  <c:v>2.70324519231</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.6639423076900002</c:v>
+                  <c:v>2.66394230769</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.7015625000000001</c:v>
+                  <c:v>2.7015625</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.7046874999999999</c:v>
+                  <c:v>2.7046875</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.6152644230800002</c:v>
+                  <c:v>2.61526442308</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.6739182692300001</c:v>
+                  <c:v>2.67391826923</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.6743990384599998</c:v>
+                  <c:v>2.67439903846</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2.64603365385</c:v>
@@ -1683,11 +1689,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="700541808"/>
-        <c:axId val="700542352"/>
+        <c:axId val="-1686613680"/>
+        <c:axId val="-1686611200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="700541808"/>
+        <c:axId val="-1686613680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1741,15 +1747,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="700542352"/>
+        <c:crossAx val="-1686611200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="700542352"/>
+        <c:axId val="-1686611200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1803,10 +1809,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="700541808"/>
+        <c:crossAx val="-1686613680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1844,7 +1850,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-TW"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1894,11 +1900,15 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
-              <a:t> oe-hot</a:t>
+              <a:t> one-hot</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-TW"/>
-              <a:t> Pair Train</a:t>
+              <a:t> Train</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+              <a:t> with 64 nodes</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1929,7 +1939,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1974,49 +1984,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2028,19 +2038,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>4.3860491644000001</c:v>
+                  <c:v>4.3860491644</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1854873656699998</c:v>
+                  <c:v>3.18548736567</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9914947948299999</c:v>
+                  <c:v>2.99149479483</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2.86851519971</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7303591220799999</c:v>
+                  <c:v>2.73035912208</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2.57171664524</c:v>
@@ -2049,28 +2059,28 @@
                   <c:v>2.52993635704</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.4430624914800001</c:v>
+                  <c:v>2.44306249148</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2.40404391119</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.4457990007500001</c:v>
+                  <c:v>2.44579900075</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.3570022776999999</c:v>
+                  <c:v>2.3570022777</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.3325575843599999</c:v>
+                  <c:v>2.33255758436</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.3076373745000001</c:v>
+                  <c:v>2.3076373745</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.2997550207600002</c:v>
+                  <c:v>2.29975502076</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.2777050353999999</c:v>
+                  <c:v>2.2777050354</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2112,49 +2122,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2166,31 +2176,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>4.2951617240899997</c:v>
+                  <c:v>4.29516172409</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2727143764500002</c:v>
+                  <c:v>3.27271437645</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0961692333199999</c:v>
+                  <c:v>3.09616923332</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0316996574399999</c:v>
+                  <c:v>3.03169965744</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9765131473499999</c:v>
+                  <c:v>2.97651314735</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2.81444120407</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.0166490077999999</c:v>
+                  <c:v>3.0166490078</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2.77932977676</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.7534849643700001</c:v>
+                  <c:v>2.75348496437</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>2.96072053909</c:v>
@@ -2199,16 +2209,16 @@
                   <c:v>2.71051549911</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.6902956962600002</c:v>
+                  <c:v>2.69029569626</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.6433885097499998</c:v>
+                  <c:v>2.64338850975</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.6633431911500001</c:v>
+                  <c:v>2.66334319115</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.6387393474600001</c:v>
+                  <c:v>2.63873934746</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2223,11 +2233,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="585780768"/>
-        <c:axId val="585781312"/>
+        <c:axId val="-1686586496"/>
+        <c:axId val="-1686584016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="585780768"/>
+        <c:axId val="-1686586496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2281,15 +2291,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="585781312"/>
+        <c:crossAx val="-1686584016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="585781312"/>
+        <c:axId val="-1686584016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2343,10 +2353,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="585780768"/>
+        <c:crossAx val="-1686586496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2386,7 +2396,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2416,7 +2426,508 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-TW"/>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>LM one-hot Train with 256 nodes</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'LM one-hot'!$A$36:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>140.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>160.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'LM one-hot'!$B$36:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.84</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.57</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'LM one-hot'!$A$36:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>140.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>160.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'LM one-hot'!$C$36:$C$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.53</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.55</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.63</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.71</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.78</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1651796480"/>
+        <c:axId val="-1651763936"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1651796480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1651763936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1651763936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1651796480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2493,7 +3004,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2538,49 +3049,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2592,34 +3103,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.41821690384299998</c:v>
+                  <c:v>0.418216903843</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.40413138555400002</c:v>
+                  <c:v>0.404131385554</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.397692939666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.38668644734500002</c:v>
+                  <c:v>0.386686447345</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.38390403610000001</c:v>
+                  <c:v>0.3839040361</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.37594474198700001</c:v>
+                  <c:v>0.375944741987</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.37651317080800001</c:v>
+                  <c:v>0.376513170808</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.376547183625</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.37591809304200002</c:v>
+                  <c:v>0.375918093042</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.37295346588099998</c:v>
+                  <c:v>0.372953465881</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.370149107576</c:v>
@@ -2628,7 +3139,7 @@
                   <c:v>0.365844065818</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.36961353273899999</c:v>
+                  <c:v>0.369613532739</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.364978460123</c:v>
@@ -2676,49 +3187,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2730,49 +3241,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.40696680545800001</c:v>
+                  <c:v>0.406966805458</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.38524276018100001</c:v>
+                  <c:v>0.385242760181</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.39376625418700001</c:v>
+                  <c:v>0.393766254187</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.398522138596</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.39178913831700002</c:v>
+                  <c:v>0.391789138317</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.39542132615999998</c:v>
+                  <c:v>0.39542132616</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.38283556699799998</c:v>
+                  <c:v>0.382835566998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.39506003260599998</c:v>
+                  <c:v>0.395060032606</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.38656145334199998</c:v>
+                  <c:v>0.386561453342</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.38201966881799998</c:v>
+                  <c:v>0.382019668818</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.38830858469000001</c:v>
+                  <c:v>0.38830858469</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.37269341945599999</c:v>
+                  <c:v>0.372693419456</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.35754442214999999</c:v>
+                  <c:v>0.35754442215</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.37662014365199997</c:v>
+                  <c:v>0.376620143652</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.36873525381099997</c:v>
+                  <c:v>0.368735253811</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2787,11 +3298,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="584212320"/>
-        <c:axId val="584213408"/>
+        <c:axId val="-1688011488"/>
+        <c:axId val="-1688026304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="584212320"/>
+        <c:axId val="-1688011488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2845,15 +3356,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584213408"/>
+        <c:crossAx val="-1688026304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="584213408"/>
+        <c:axId val="-1688026304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2907,10 +3418,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="584212320"/>
+        <c:crossAx val="-1688011488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2950,7 +3461,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2980,7 +3491,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-TW"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3057,7 +3568,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3102,49 +3613,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3156,49 +3667,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>37</c:v>
+                  <c:v>37.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>36</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3213,11 +3724,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="700540720"/>
-        <c:axId val="695796768"/>
+        <c:axId val="-1652227184"/>
+        <c:axId val="-1652224704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="700540720"/>
+        <c:axId val="-1652227184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3271,15 +3782,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="695796768"/>
+        <c:crossAx val="-1652224704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="695796768"/>
+        <c:axId val="-1652224704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3333,10 +3844,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="700540720"/>
+        <c:crossAx val="-1652227184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3374,7 +3885,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-TW"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3426,7 +3937,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3437,10 +3948,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.6775371828521436E-2"/>
-          <c:y val="7.407407407407407E-2"/>
-          <c:w val="0.88389129483814521"/>
-          <c:h val="0.8416746864975212"/>
+          <c:x val="0.0867753718285214"/>
+          <c:y val="0.0740740740740741"/>
+          <c:w val="0.883891294838145"/>
+          <c:h val="0.841674686497521"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -3481,49 +3992,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3538,43 +4049,43 @@
                   <c:v>0.576143257784</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.58993246337000005</c:v>
+                  <c:v>0.58993246337</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.59999141483499996</c:v>
+                  <c:v>0.599991414835</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.59292868589699999</c:v>
+                  <c:v>0.592928685897</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.59620964972500001</c:v>
+                  <c:v>0.596209649725</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.59356541895600001</c:v>
+                  <c:v>0.593565418956</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.58731684981700005</c:v>
+                  <c:v>0.587316849817</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.56351877289399999</c:v>
+                  <c:v>0.563518772894</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.58711080586099995</c:v>
+                  <c:v>0.587110805861</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.58614926739899997</c:v>
+                  <c:v>0.586149267399</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.60164835164800001</c:v>
+                  <c:v>0.601648351648</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.60032051282099996</c:v>
+                  <c:v>0.600320512821</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.55015739468900005</c:v>
+                  <c:v>0.550157394689</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.53395146520100001</c:v>
+                  <c:v>0.533951465201</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.537800480769</c:v>
@@ -3592,11 +4103,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="585780224"/>
-        <c:axId val="699532368"/>
+        <c:axId val="-1686736896"/>
+        <c:axId val="-1686734416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="585780224"/>
+        <c:axId val="-1686736896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3650,15 +4161,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="699532368"/>
+        <c:crossAx val="-1686734416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="699532368"/>
+        <c:axId val="-1686734416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3712,10 +4223,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="585780224"/>
+        <c:crossAx val="-1686736896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3753,7 +4264,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-TW"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3830,7 +4341,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3875,49 +4386,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3929,46 +4440,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.65480510422100002</c:v>
+                  <c:v>0.654805104221</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.63409263392799997</c:v>
+                  <c:v>0.634092633928</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.54849265405100001</c:v>
+                  <c:v>0.548492654051</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.52927114704599998</c:v>
+                  <c:v>0.529271147046</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.51858063292300005</c:v>
+                  <c:v>0.518580632923</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.51864423662699999</c:v>
+                  <c:v>0.518644236627</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.50027079663499996</c:v>
+                  <c:v>0.500270796635</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.52001828358500002</c:v>
+                  <c:v>0.520018283585</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.50632141501700001</c:v>
+                  <c:v>0.506321415017</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.49465898331199998</c:v>
+                  <c:v>0.494658983312</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.49147847813200002</c:v>
+                  <c:v>0.491478478132</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.48826404329700002</c:v>
+                  <c:v>0.488264043297</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.48740034216200001</c:v>
+                  <c:v>0.487400342162</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.49214662467499998</c:v>
+                  <c:v>0.492146624675</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.469056674871</c:v>
@@ -4013,49 +4524,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4067,46 +4578,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.57203441858299997</c:v>
+                  <c:v>0.572034418583</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.60283470153800001</c:v>
+                  <c:v>0.602834701538</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.56795883178700002</c:v>
+                  <c:v>0.567958831787</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.56620395183600003</c:v>
+                  <c:v>0.566203951836</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.56993377208700002</c:v>
+                  <c:v>0.569933772087</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.57087194919600004</c:v>
+                  <c:v>0.570871949196</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.55908006429699997</c:v>
+                  <c:v>0.559080064297</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.61074483394599999</c:v>
+                  <c:v>0.610744833946</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.55592721700699999</c:v>
+                  <c:v>0.555927217007</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.56539160013199996</c:v>
+                  <c:v>0.565391600132</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.54478472471200001</c:v>
+                  <c:v>0.544784724712</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.57120323181199995</c:v>
+                  <c:v>0.571203231812</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.551979780197</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.55754435062399998</c:v>
+                  <c:v>0.557544350624</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.549942195415</c:v>
@@ -4124,11 +4635,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="699530192"/>
-        <c:axId val="699529648"/>
+        <c:axId val="-1686709616"/>
+        <c:axId val="-1686707136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="699530192"/>
+        <c:axId val="-1686709616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4182,15 +4693,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="699529648"/>
+        <c:crossAx val="-1686707136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="699529648"/>
+        <c:axId val="-1686707136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4244,10 +4755,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="699530192"/>
+        <c:crossAx val="-1686709616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4287,7 +4798,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4317,7 +4828,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-TW"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4394,7 +4905,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4439,49 +4950,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4493,49 +5004,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>23</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>29</c:v>
+                  <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4550,11 +5061,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="589421760"/>
-        <c:axId val="589421216"/>
+        <c:axId val="-1609992736"/>
+        <c:axId val="-1609990256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="589421760"/>
+        <c:axId val="-1609992736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4608,15 +5119,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="589421216"/>
+        <c:crossAx val="-1609990256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="589421216"/>
+        <c:axId val="-1609990256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4670,10 +5181,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="589421760"/>
+        <c:crossAx val="-1609992736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4711,7 +5222,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-TW"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4763,7 +5274,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4774,10 +5285,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.6775371828521436E-2"/>
-          <c:y val="7.407407407407407E-2"/>
-          <c:w val="0.88389129483814521"/>
-          <c:h val="0.8416746864975212"/>
+          <c:x val="0.0867753718285214"/>
+          <c:y val="0.0740740740740741"/>
+          <c:w val="0.883891294838145"/>
+          <c:h val="0.841674686497521"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -4818,49 +5329,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4872,25 +5383,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>3.1492788461500001</c:v>
+                  <c:v>3.14927884615</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0245192307700002</c:v>
+                  <c:v>3.02451923077</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.97956730769</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8278846153799999</c:v>
+                  <c:v>2.82788461538</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.83834134615</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8122596153799999</c:v>
+                  <c:v>2.81225961538</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.7790865384600001</c:v>
+                  <c:v>2.77908653846</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2.64543269231</c:v>
@@ -4899,22 +5410,22 @@
                   <c:v>2.60877403846</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.7185096153799999</c:v>
+                  <c:v>2.71850961538</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.5674278846199998</c:v>
+                  <c:v>2.56742788462</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.5106971153800002</c:v>
+                  <c:v>2.51069711538</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2.62379807692</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.5051682692299999</c:v>
+                  <c:v>2.50516826923</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.6713942307699998</c:v>
+                  <c:v>2.67139423077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4929,11 +5440,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="312179376"/>
-        <c:axId val="312181008"/>
+        <c:axId val="-1652189200"/>
+        <c:axId val="-1652186720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="312179376"/>
+        <c:axId val="-1652189200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4987,15 +5498,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312181008"/>
+        <c:crossAx val="-1652186720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="312181008"/>
+        <c:axId val="-1652186720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5049,10 +5560,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312179376"/>
+        <c:crossAx val="-1652189200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5090,7 +5601,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-TW"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5167,7 +5678,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5212,49 +5723,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5266,49 +5777,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.69479348731099999</c:v>
+                  <c:v>0.694793487311</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.68598789310200003</c:v>
+                  <c:v>0.685987893102</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.681695116682</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.67777681144500002</c:v>
+                  <c:v>0.677776811445</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.676370954829</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.67521707014800003</c:v>
+                  <c:v>0.675217070148</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.67459015734700001</c:v>
+                  <c:v>0.674590157347</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.67301860848899997</c:v>
+                  <c:v>0.673018608489</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.67283752478799996</c:v>
+                  <c:v>0.672837524788</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.67131840248899999</c:v>
+                  <c:v>0.671318402489</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.67168377677900004</c:v>
+                  <c:v>0.671683776779</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.67188355359999996</c:v>
+                  <c:v>0.6718835536</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.67099094221099997</c:v>
+                  <c:v>0.670990942211</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.67049742678799995</c:v>
+                  <c:v>0.670497426788</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.67040493329399997</c:v>
+                  <c:v>0.670404933294</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5350,49 +5861,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5404,49 +5915,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.68654644489299999</c:v>
+                  <c:v>0.686546444893</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.68177211284600003</c:v>
+                  <c:v>0.681772112846</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.67957383394199999</c:v>
+                  <c:v>0.679573833942</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.680604696274</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.67873001098600005</c:v>
+                  <c:v>0.678730010986</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.67870384454699995</c:v>
+                  <c:v>0.678703844547</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.67827373743099995</c:v>
+                  <c:v>0.678273737431</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.677624225616</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.67746210098299997</c:v>
+                  <c:v>0.677462100983</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.67563772201500005</c:v>
+                  <c:v>0.675637722015</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.67789620161099995</c:v>
+                  <c:v>0.677896201611</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.675341427326</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.67945843935000005</c:v>
+                  <c:v>0.67945843935</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.67695140838599999</c:v>
+                  <c:v>0.676951408386</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.67997533082999995</c:v>
+                  <c:v>0.67997533083</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5461,11 +5972,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="699830112"/>
-        <c:axId val="699836096"/>
+        <c:axId val="-1686723840"/>
+        <c:axId val="-1686722480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="699830112"/>
+        <c:axId val="-1686723840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5519,15 +6030,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="699836096"/>
+        <c:crossAx val="-1686722480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="699836096"/>
+        <c:axId val="-1686722480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5581,10 +6092,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="699830112"/>
+        <c:crossAx val="-1686723840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5624,7 +6135,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5654,7 +6165,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-TW"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5731,7 +6242,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5776,49 +6287,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5830,49 +6341,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29</c:v>
+                  <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>29</c:v>
+                  <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>34</c:v>
+                  <c:v>34.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5887,11 +6398,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="699833920"/>
-        <c:axId val="699830656"/>
+        <c:axId val="-1686677872"/>
+        <c:axId val="-1686675392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="699833920"/>
+        <c:axId val="-1686677872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5945,15 +6456,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="699830656"/>
+        <c:crossAx val="-1686675392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="699830656"/>
+        <c:axId val="-1686675392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6007,10 +6518,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="699833920"/>
+        <c:crossAx val="-1686677872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6048,7 +6559,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-TW"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6220,6 +6731,46 @@
 </file>
 
 <file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8644,6 +9195,522 @@
 </file>
 
 <file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13719,6 +14786,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -13987,18 +15084,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="J16" sqref="I16:J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -14015,7 +15112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -14032,7 +15129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -14049,7 +15146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6</v>
       </c>
@@ -14066,7 +15163,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>8</v>
       </c>
@@ -14083,7 +15180,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>10</v>
       </c>
@@ -14100,7 +15197,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>12</v>
       </c>
@@ -14117,7 +15214,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>14</v>
       </c>
@@ -14134,7 +15231,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>16</v>
       </c>
@@ -14151,7 +15248,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>18</v>
       </c>
@@ -14168,7 +15265,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>20</v>
       </c>
@@ -14185,7 +15282,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>22</v>
       </c>
@@ -14202,7 +15299,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>24</v>
       </c>
@@ -14219,7 +15316,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>26</v>
       </c>
@@ -14236,7 +15333,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>28</v>
       </c>
@@ -14253,7 +15350,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>30</v>
       </c>
@@ -14286,14 +15383,14 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -14310,7 +15407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -14327,7 +15424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -14344,7 +15441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6</v>
       </c>
@@ -14361,7 +15458,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>8</v>
       </c>
@@ -14378,7 +15475,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>10</v>
       </c>
@@ -14395,7 +15492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>12</v>
       </c>
@@ -14412,7 +15509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>14</v>
       </c>
@@ -14429,7 +15526,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>16</v>
       </c>
@@ -14446,7 +15543,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>18</v>
       </c>
@@ -14463,7 +15560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>20</v>
       </c>
@@ -14480,7 +15577,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>22</v>
       </c>
@@ -14497,7 +15594,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>24</v>
       </c>
@@ -14514,7 +15611,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>26</v>
       </c>
@@ -14531,7 +15628,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>28</v>
       </c>
@@ -14548,7 +15645,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>30</v>
       </c>
@@ -14580,14 +15677,14 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -14604,7 +15701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -14621,7 +15718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -14638,7 +15735,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6</v>
       </c>
@@ -14655,7 +15752,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>8</v>
       </c>
@@ -14672,7 +15769,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>10</v>
       </c>
@@ -14689,7 +15786,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>12</v>
       </c>
@@ -14706,7 +15803,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>14</v>
       </c>
@@ -14723,7 +15820,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>16</v>
       </c>
@@ -14740,7 +15837,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>18</v>
       </c>
@@ -14757,7 +15854,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>20</v>
       </c>
@@ -14774,7 +15871,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>22</v>
       </c>
@@ -14791,7 +15888,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>24</v>
       </c>
@@ -14808,7 +15905,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>26</v>
       </c>
@@ -14825,7 +15922,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>28</v>
       </c>
@@ -14842,7 +15939,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>30</v>
       </c>
@@ -14874,14 +15971,14 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -14895,7 +15992,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -14909,7 +16006,7 @@
         <v>0.55697864294099997</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -14923,7 +16020,7 @@
         <v>0.475655972958</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6</v>
       </c>
@@ -14937,7 +16034,7 @@
         <v>0.45439422130599999</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>8</v>
       </c>
@@ -14951,7 +16048,7 @@
         <v>0.44768103957200001</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>10</v>
       </c>
@@ -14965,7 +16062,7 @@
         <v>0.44388997554800003</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>12</v>
       </c>
@@ -14979,7 +16076,7 @@
         <v>0.43407842516900003</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>14</v>
       </c>
@@ -14993,7 +16090,7 @@
         <v>0.42970818281200002</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>16</v>
       </c>
@@ -15007,7 +16104,7 @@
         <v>0.42585355043400003</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>18</v>
       </c>
@@ -15021,7 +16118,7 @@
         <v>0.42486354708700003</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>20</v>
       </c>
@@ -15035,7 +16132,7 @@
         <v>0.42019677162199998</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>22</v>
       </c>
@@ -15049,7 +16146,7 @@
         <v>0.41980573534999999</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>24</v>
       </c>
@@ -15063,7 +16160,7 @@
         <v>0.41747221350699998</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>26</v>
       </c>
@@ -15077,7 +16174,7 @@
         <v>0.41308909654600001</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>28</v>
       </c>
@@ -15091,7 +16188,7 @@
         <v>0.41377663612400001</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>30</v>
       </c>
@@ -15114,20 +16211,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="T55" sqref="T55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -15141,7 +16238,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -15155,7 +16252,7 @@
         <v>4.2951617240899997</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -15169,7 +16266,7 @@
         <v>3.2727143764500002</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6</v>
       </c>
@@ -15183,7 +16280,7 @@
         <v>3.0961692333199999</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>8</v>
       </c>
@@ -15197,7 +16294,7 @@
         <v>3.0316996574399999</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>10</v>
       </c>
@@ -15211,7 +16308,7 @@
         <v>2.9765131473499999</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>12</v>
       </c>
@@ -15225,7 +16322,7 @@
         <v>2.81444120407</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>14</v>
       </c>
@@ -15239,7 +16336,7 @@
         <v>3.0166490077999999</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>16</v>
       </c>
@@ -15253,7 +16350,7 @@
         <v>2.77932977676</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>18</v>
       </c>
@@ -15267,7 +16364,7 @@
         <v>2.7534849643700001</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>20</v>
       </c>
@@ -15281,7 +16378,7 @@
         <v>2.96072053909</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>22</v>
       </c>
@@ -15295,7 +16392,7 @@
         <v>2.71051549911</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>24</v>
       </c>
@@ -15309,7 +16406,7 @@
         <v>2.6902956962600002</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>26</v>
       </c>
@@ -15323,7 +16420,7 @@
         <v>2.6433885097499998</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>28</v>
       </c>
@@ -15337,7 +16434,7 @@
         <v>2.6633431911500001</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>30</v>
       </c>
@@ -15349,11 +16446,122 @@
       </c>
       <c r="D17">
         <v>2.6387393474600001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>20</v>
+      </c>
+      <c r="B36">
+        <v>2.19</v>
+      </c>
+      <c r="C36">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>40</v>
+      </c>
+      <c r="B37">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C37">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>60</v>
+      </c>
+      <c r="B38">
+        <v>1.92</v>
+      </c>
+      <c r="C38">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>80</v>
+      </c>
+      <c r="B39">
+        <v>1.84</v>
+      </c>
+      <c r="C39">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>100</v>
+      </c>
+      <c r="B40">
+        <v>1.75</v>
+      </c>
+      <c r="C40">
+        <v>2.5299999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>120</v>
+      </c>
+      <c r="B41">
+        <v>1.64</v>
+      </c>
+      <c r="C41">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>140</v>
+      </c>
+      <c r="B42">
+        <v>1.57</v>
+      </c>
+      <c r="C42">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>160</v>
+      </c>
+      <c r="B43">
+        <v>1.45</v>
+      </c>
+      <c r="C43">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>180</v>
+      </c>
+      <c r="B44">
+        <v>1.4</v>
+      </c>
+      <c r="C44">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>200</v>
+      </c>
+      <c r="B45">
+        <v>1.3</v>
+      </c>
+      <c r="C45">
+        <v>2.85</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/plots.xlsx
+++ b/plots.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32720" windowHeight="20320" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="L1 Pair" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
   <si>
     <t>GRU L1 Pair epoch=40, epoch_pred = 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,6 +94,15 @@
   <si>
     <t xml:space="preserve"> test loss</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Train loss</t>
+  </si>
+  <si>
+    <t>Eval loss</t>
+  </si>
+  <si>
+    <t>Epoch</t>
   </si>
 </sst>
 </file>
@@ -175,7 +184,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -367,11 +375,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1610022256"/>
-        <c:axId val="-1610020208"/>
+        <c:axId val="-2122859568"/>
+        <c:axId val="-2122857520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1610022256"/>
+        <c:axId val="-2122859568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -428,12 +436,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1610020208"/>
+        <c:crossAx val="-2122857520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1610020208"/>
+        <c:axId val="-2122857520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -490,7 +498,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1610022256"/>
+        <c:crossAx val="-2122859568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -746,11 +754,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1652171488"/>
-        <c:axId val="-1652169440"/>
+        <c:axId val="-2130030464"/>
+        <c:axId val="-2130027984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1652171488"/>
+        <c:axId val="-2130030464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -807,12 +815,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1652169440"/>
+        <c:crossAx val="-2130027984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1652169440"/>
+        <c:axId val="-2130027984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -869,7 +877,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1652171488"/>
+        <c:crossAx val="-2130030464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1278,11 +1286,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1686647296"/>
-        <c:axId val="-1686645232"/>
+        <c:axId val="-2130003376"/>
+        <c:axId val="-2130000896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1686647296"/>
+        <c:axId val="-2130003376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1339,12 +1347,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1686645232"/>
+        <c:crossAx val="-2130000896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1686645232"/>
+        <c:axId val="-2130000896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1401,7 +1409,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1686647296"/>
+        <c:crossAx val="-2130003376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1689,11 +1697,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1686613680"/>
-        <c:axId val="-1686611200"/>
+        <c:axId val="-2122736944"/>
+        <c:axId val="-2122720208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1686613680"/>
+        <c:axId val="-2122736944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1750,12 +1758,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1686611200"/>
+        <c:crossAx val="-2122720208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1686611200"/>
+        <c:axId val="-2122720208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1812,7 +1820,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1686613680"/>
+        <c:crossAx val="-2122736944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2233,11 +2241,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1686586496"/>
-        <c:axId val="-1686584016"/>
+        <c:axId val="-2122690384"/>
+        <c:axId val="-2122687904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1686586496"/>
+        <c:axId val="-2122690384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2294,12 +2302,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1686584016"/>
+        <c:crossAx val="-2122687904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1686584016"/>
+        <c:axId val="-2122687904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2356,7 +2364,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1686586496"/>
+        <c:crossAx val="-2122690384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2370,7 +2378,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.848996062992126"/>
+          <c:y val="0.583247912192794"/>
+          <c:w val="0.131003937007874"/>
+          <c:h val="0.183031448341685"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2521,6 +2538,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'LM one-hot'!$B$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Train loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="31750" cap="rnd">
               <a:noFill/>
@@ -2626,6 +2654,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'LM one-hot'!$C$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Eval loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="31750" cap="rnd">
               <a:noFill/>
@@ -2736,11 +2775,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1651796480"/>
-        <c:axId val="-1651763936"/>
+        <c:axId val="-2069854976"/>
+        <c:axId val="-2094334608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1651796480"/>
+        <c:axId val="-2069854976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2796,12 +2835,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1651763936"/>
+        <c:crossAx val="-2094334608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1651763936"/>
+        <c:axId val="-2094334608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2857,7 +2896,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1651796480"/>
+        <c:crossAx val="-2069854976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2978,7 +3017,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3298,11 +3336,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1688011488"/>
-        <c:axId val="-1688026304"/>
+        <c:axId val="-2122832608"/>
+        <c:axId val="-2122829856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1688011488"/>
+        <c:axId val="-2122832608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3359,12 +3397,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1688026304"/>
+        <c:crossAx val="-2122829856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1688026304"/>
+        <c:axId val="-2122829856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3421,7 +3459,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1688011488"/>
+        <c:crossAx val="-2122832608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3435,7 +3473,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3542,7 +3579,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3724,11 +3760,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1652227184"/>
-        <c:axId val="-1652224704"/>
+        <c:axId val="-2122809680"/>
+        <c:axId val="-2122807200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1652227184"/>
+        <c:axId val="-2122809680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3785,12 +3821,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1652224704"/>
+        <c:crossAx val="-2122807200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1652224704"/>
+        <c:axId val="-2122807200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3847,7 +3883,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1652227184"/>
+        <c:crossAx val="-2122809680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3911,7 +3947,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4103,11 +4138,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1686736896"/>
-        <c:axId val="-1686734416"/>
+        <c:axId val="-2122776768"/>
+        <c:axId val="-2122774288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1686736896"/>
+        <c:axId val="-2122776768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4164,12 +4199,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1686734416"/>
+        <c:crossAx val="-2122774288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1686734416"/>
+        <c:axId val="-2122774288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4226,7 +4261,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1686736896"/>
+        <c:crossAx val="-2122776768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4315,7 +4350,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4635,11 +4669,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1686709616"/>
-        <c:axId val="-1686707136"/>
+        <c:axId val="-2122747520"/>
+        <c:axId val="-2122745456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1686709616"/>
+        <c:axId val="-2122747520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4696,12 +4730,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1686707136"/>
+        <c:crossAx val="-2122745456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1686707136"/>
+        <c:axId val="-2122745456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4758,7 +4792,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1686709616"/>
+        <c:crossAx val="-2122747520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4772,7 +4806,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4879,7 +4912,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5061,11 +5093,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1609992736"/>
-        <c:axId val="-1609990256"/>
+        <c:axId val="-2122727712"/>
+        <c:axId val="-2122725232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1609992736"/>
+        <c:axId val="-2122727712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5122,12 +5154,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1609990256"/>
+        <c:crossAx val="-2122725232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1609990256"/>
+        <c:axId val="-2122725232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5184,7 +5216,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1609992736"/>
+        <c:crossAx val="-2122727712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5248,7 +5280,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5440,11 +5471,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1652189200"/>
-        <c:axId val="-1652186720"/>
+        <c:axId val="-2130111136"/>
+        <c:axId val="-2130109072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1652189200"/>
+        <c:axId val="-2130111136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5501,12 +5532,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1652186720"/>
+        <c:crossAx val="-2130109072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1652186720"/>
+        <c:axId val="-2130109072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5563,7 +5594,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1652189200"/>
+        <c:crossAx val="-2130111136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5652,7 +5683,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5972,11 +6002,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1686723840"/>
-        <c:axId val="-1686722480"/>
+        <c:axId val="-2130081872"/>
+        <c:axId val="-2130079392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1686723840"/>
+        <c:axId val="-2130081872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6033,12 +6063,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1686722480"/>
+        <c:crossAx val="-2130079392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1686722480"/>
+        <c:axId val="-2130079392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6095,7 +6125,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1686723840"/>
+        <c:crossAx val="-2130081872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6109,7 +6139,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6216,7 +6245,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6398,11 +6426,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1686677872"/>
-        <c:axId val="-1686675392"/>
+        <c:axId val="-2130059216"/>
+        <c:axId val="-2130056736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1686677872"/>
+        <c:axId val="-2130059216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6459,12 +6487,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1686675392"/>
+        <c:crossAx val="-2130056736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1686675392"/>
+        <c:axId val="-2130056736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6521,7 +6549,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1686677872"/>
+        <c:crossAx val="-2130059216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14788,20 +14816,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="6" name="Chart 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -15967,8 +15995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16213,8 +16241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="T55" sqref="T55"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16446,6 +16474,17 @@
       </c>
       <c r="D17">
         <v>2.6387393474600001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
